--- a/src/main/resources/csv/task.xlsx
+++ b/src/main/resources/csv/task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9347"/>
+    <workbookView windowWidth="22488" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>takId</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -28,6 +31,9 @@
     <t>desId</t>
   </si>
   <si>
+    <t>goal（目标）</t>
+  </si>
+  <si>
     <t>times（次数）</t>
   </si>
   <si>
@@ -76,7 +82,7 @@
     <t>向其他玩家发起【PK 挑战】，并在PK中获得胜利</t>
   </si>
   <si>
-    <t>击杀野怪</t>
+    <t>击杀野怪任务</t>
   </si>
   <si>
     <t>11002,1|10072,1</t>
@@ -85,7 +91,7 @@
     <t>击杀5只野怪【石牙野猪】，熟悉战斗模式</t>
   </si>
   <si>
-    <t>挑战进阶副本</t>
+    <t>副本任务</t>
   </si>
   <si>
     <t>11002,2|10092,1|10020,1</t>
@@ -111,12 +117,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +138,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,8 +160,101 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,121 +269,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,13 +284,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,144 +458,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -448,24 +465,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,20 +489,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,8 +522,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,21 +557,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,148 +578,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1045,21 +1044,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7"/>
   <cols>
-    <col min="2" max="2" width="16.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="16.7777777777778" customWidth="1"/>
-    <col min="7" max="8" width="28.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="52" customWidth="1"/>
+    <col min="3" max="3" width="16.8888888888889" customWidth="1"/>
+    <col min="6" max="7" width="16.7777777777778" customWidth="1"/>
+    <col min="9" max="10" width="28.2222222222222" customWidth="1"/>
+    <col min="11" max="11" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1087,208 +1086,238 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>11101</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="B2">
+        <v>11001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>1001</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>100</v>
       </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>11102</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
+      <c r="B3">
+        <v>11002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>200</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>11103</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
+      <c r="B4">
+        <v>11003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>100</v>
       </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>11104</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
+      <c r="B5">
+        <v>11004</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>300</v>
       </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>11105</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
+      <c r="B6">
+        <v>11005</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>10002</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>400</v>
       </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>11106</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
+      <c r="B7">
+        <v>11006</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>10002</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>500</v>
       </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>11107</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8">
+      <c r="B8">
+        <v>11007</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <v>1000</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
       </c>
       <c r="I8" t="s">
         <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/csv/task.xlsx
+++ b/src/main/resources/csv/task.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>takId</t>
   </si>
@@ -117,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -131,6 +128,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -146,6 +151,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -154,36 +166,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,6 +197,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -221,40 +212,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,6 +234,43 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -284,67 +281,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,115 +455,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,21 +486,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -519,11 +501,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,17 +549,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,10 +578,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,133 +590,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,21 +1041,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7"/>
   <cols>
-    <col min="3" max="3" width="16.8888888888889" customWidth="1"/>
-    <col min="6" max="7" width="16.7777777777778" customWidth="1"/>
-    <col min="9" max="10" width="28.2222222222222" customWidth="1"/>
-    <col min="11" max="11" width="52" customWidth="1"/>
+    <col min="2" max="2" width="16.8888888888889" customWidth="1"/>
+    <col min="5" max="6" width="16.7777777777778" customWidth="1"/>
+    <col min="8" max="9" width="28.2222222222222" customWidth="1"/>
+    <col min="10" max="10" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1089,235 +1086,211 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>11101</v>
       </c>
-      <c r="B2">
-        <v>11001</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1001</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1001</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>11102</v>
       </c>
-      <c r="B3">
-        <v>11002</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>200</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>11103</v>
       </c>
-      <c r="B4">
-        <v>11003</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
         <v>17</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>11104</v>
       </c>
-      <c r="B5">
-        <v>11004</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>300</v>
+      </c>
+      <c r="H5" t="s">
         <v>19</v>
       </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>300</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>11105</v>
       </c>
-      <c r="B6">
-        <v>11005</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>10002</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>400</v>
+      </c>
+      <c r="H6" t="s">
         <v>22</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>10002</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>400</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>23</v>
       </c>
-      <c r="K6" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>11106</v>
       </c>
-      <c r="B7">
-        <v>11006</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>10002</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>500</v>
+      </c>
+      <c r="H7" t="s">
         <v>25</v>
       </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>10002</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>500</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>26</v>
       </c>
-      <c r="K7" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>11107</v>
       </c>
-      <c r="B8">
-        <v>11007</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1000</v>
+      </c>
+      <c r="H8" t="s">
         <v>28</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1000</v>
       </c>
       <c r="I8" t="s">
         <v>29</v>
       </c>
       <c r="J8" t="s">
         <v>30</v>
-      </c>
-      <c r="K8" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/csv/task.xlsx
+++ b/src/main/resources/csv/task.xlsx
@@ -106,7 +106,7 @@
     <t>11103|11106</t>
   </si>
   <si>
-    <t>对其他玩家【组队】并完成副本挑战</t>
+    <t>与其他玩家【组队】并完成副本挑战</t>
   </si>
 </sst>
 </file>
@@ -114,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -128,45 +128,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,19 +210,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,6 +243,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -221,38 +258,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,13 +267,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,13 +281,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,169 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,11 +477,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,16 +500,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,26 +543,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,160 +572,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,7 +1044,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7"/>

--- a/src/main/resources/csv/task.xlsx
+++ b/src/main/resources/csv/task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9420"/>
+    <workbookView windowWidth="20448" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
     <t>11002,1|10072,1</t>
   </si>
   <si>
-    <t>击杀5只野怪【石牙野猪】，熟悉战斗模式</t>
+    <t>前往森林，击杀2只野怪【石牙野猪】，熟悉战斗模式</t>
   </si>
   <si>
     <t>副本任务</t>
@@ -128,74 +128,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -210,8 +159,59 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,25 +225,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,14 +259,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -266,7 +266,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,31 +281,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,61 +413,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,85 +449,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,23 +478,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,29 +501,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,16 +563,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,133 +590,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,8 +1043,8 @@
   <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7"/>
@@ -1217,7 +1217,7 @@
         <v>10002</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
